--- a/GSE107451/processed_data/DESeq_result/DESeq_w1118_male_30_vs_3_DOWN0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_w1118_male_30_vs_3_DOWN0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,193 +38,415 @@
     <t xml:space="preserve">sig</t>
   </si>
   <si>
+    <t xml:space="preserve">Hsromega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down</t>
+  </si>
+  <si>
     <t xml:space="preserve">mt:lrRNA</t>
   </si>
   <si>
-    <t xml:space="preserve">down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsromega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:CoIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrv3</t>
+    <t xml:space="preserve">mt:ND2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFeSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpcp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsynB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sesB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blw</t>
   </si>
   <si>
     <t xml:space="preserve">levy</t>
   </si>
   <si>
-    <t xml:space="preserve">mt:ATPase6</t>
+    <t xml:space="preserve">COX6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsyndelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsynE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsynD</t>
   </si>
   <si>
     <t xml:space="preserve">ATPsynF</t>
   </si>
   <si>
-    <t xml:space="preserve">Hsp26</t>
+    <t xml:space="preserve">Pgk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sosie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pglym78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsynCF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyt-c-p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sun</t>
   </si>
   <si>
     <t xml:space="preserve">TM4SF</t>
   </si>
   <si>
-    <t xml:space="preserve">sesB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:ND5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX4</t>
-  </si>
-  <si>
     <t xml:space="preserve">CG7630</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyt-c-p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG6329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX5B</t>
+    <t xml:space="preserve">ATPsynO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mdh2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11752</t>
   </si>
   <si>
     <t xml:space="preserve">ATPsynG</t>
   </si>
   <si>
-    <t xml:space="preserve">Cam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynD</t>
+    <t xml:space="preserve">ND-B22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gad1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gapdh1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalisin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SdhD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsyngamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-2mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syngr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rh7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCR-Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SdhC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B16.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QIL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-ACP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-13B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gpdh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCR-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP15.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cchl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo81F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neb-cGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B14.5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gammaSnap1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B17.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gdh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atox1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-24</t>
   </si>
   <si>
     <t xml:space="preserve">cype</t>
   </si>
   <si>
-    <t xml:space="preserve">COX5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mpcp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argk</t>
+    <t xml:space="preserve">mRpL28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdf</t>
   </si>
   <si>
     <t xml:space="preserve">COX8</t>
   </si>
   <si>
-    <t xml:space="preserve">RNASEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vha13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQCR-Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFeSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynCF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND-B22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DnaJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp70Bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alphagamma-element:CR32865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsp42Ej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynbeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND-MLRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neb-cGP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX7C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ggamma30A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQCR-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG14989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cbp53E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp67Bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VGlut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gad1</t>
+    <t xml:space="preserve">CG42392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nAChRalpha4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpL55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sfxn2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NfI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pka-C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpL27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dic1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UbcE2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yippee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpL41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpL36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG18428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpS24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr38</t>
   </si>
 </sst>
 </file>
@@ -587,22 +809,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>56.6451579937075</v>
+        <v>13286.1921168405</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.12924518836372</v>
+        <v>-1.18751990384367</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0776007508708481</v>
+        <v>0.206013976550488</v>
       </c>
       <c r="E2" t="n">
-        <v>-27.4384611549372</v>
+        <v>-5.76426863714581</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000095399592874353</v>
+        <v>0.0000000082012696607141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000244986154501338</v>
+        <v>0.0000055403357721458</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -613,22 +835,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>30.1300191295047</v>
+        <v>25058.1471791893</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.61814778574432</v>
+        <v>-1.70705322840482</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0898018173663082</v>
+        <v>0.297712299036822</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.0190984236297</v>
+        <v>-5.73390227386503</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000137973659076328</v>
+        <v>0.00000000981458949892968</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000177158178254005</v>
+        <v>0.0000055403357721458</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -639,22 +861,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>20.4398718053703</v>
+        <v>402.532392708847</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.31211283346956</v>
+        <v>-2.28407332869749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0761504917667589</v>
+        <v>0.392317836873232</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.2305234415088</v>
+        <v>-5.82199715134423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000156726644362346</v>
+        <v>0.00000000581485407895041</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000134158007574169</v>
+        <v>0.0000055403357721458</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -665,22 +887,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>20.4963156025361</v>
+        <v>2294.09685101705</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.29911776708611</v>
+        <v>-1.27449605562582</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0759629332511212</v>
+        <v>0.240879178896743</v>
       </c>
       <c r="E5" t="n">
-        <v>-17.1019958219811</v>
+        <v>-5.29101793464747</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000143408018712295</v>
+        <v>0.000000121637436209398</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000920679480132931</v>
+        <v>0.0000541343207546224</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -691,22 +913,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>5.97417851500132</v>
+        <v>966.641507403491</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.49041212797655</v>
+        <v>-1.45908273840246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0879742906170644</v>
+        <v>0.277378099982448</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.9414509343875</v>
+        <v>-5.26026654049034</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000222566790975826</v>
+        <v>0.0000001438467336261</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000114310303845184</v>
+        <v>0.0000541343207546224</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -717,22 +939,22 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>32.0471877970801</v>
+        <v>669.676589556142</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.28044536568872</v>
+        <v>-1.91459936168418</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0756998820486107</v>
+        <v>0.371685668427748</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.9147603805576</v>
+        <v>-5.15112506162276</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000350238250914465</v>
+        <v>0.000000258928446256039</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000149901971391391</v>
+        <v>0.0000798706468297688</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -743,22 +965,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>6.32496208155581</v>
+        <v>2373.99732396933</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.36768114386057</v>
+        <v>-1.12334311093539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.083275011930044</v>
+        <v>0.22757735806834</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.4236679426657</v>
+        <v>-4.93609346936026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000129496394271136</v>
+        <v>0.000000797029201351328</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000475066772126109</v>
+        <v>0.000199965770739033</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -769,22 +991,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>12.890980752352</v>
+        <v>167.171257895108</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.55312170075368</v>
+        <v>-2.8972834233584</v>
       </c>
       <c r="D9" t="n">
-        <v>0.156406582000095</v>
+        <v>0.600087474124897</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.3236205798048</v>
+        <v>-4.82810181562861</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000067038923908198</v>
+        <v>0.00000137840618564745</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000215194945745315</v>
+        <v>0.000311244116719194</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -795,22 +1017,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>4.09986470102152</v>
+        <v>1416.65960216987</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.23926329434035</v>
+        <v>-1.25160875286825</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0780843722772076</v>
+        <v>0.267377223003927</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.8708235489278</v>
+        <v>-4.68105973577961</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000100908090827203</v>
+        <v>0.00000285395756259829</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000287924419160285</v>
+        <v>0.000585839652395177</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -821,22 +1043,22 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>12.9499006616402</v>
+        <v>1583.6938669297</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.39381278459689</v>
+        <v>-1.25556338322877</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0881263877100622</v>
+        <v>0.269262123286665</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.8160662295902</v>
+        <v>-4.66297809696784</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000241093260236957</v>
+        <v>0.00000311665935802441</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000619127492288505</v>
+        <v>0.000586451402534926</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -847,22 +1069,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>6.1531070361246</v>
+        <v>1595.70605751697</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.3284651779505</v>
+        <v>-1.14463123983233</v>
       </c>
       <c r="D12" t="n">
-        <v>0.085009593324039</v>
+        <v>0.246612210668997</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.6272383622242</v>
+        <v>-4.64142159355059</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000047494564314185</v>
+        <v>0.00000346020318813424</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000110878219235297</v>
+        <v>0.000601010676831317</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -873,22 +1095,22 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>6.03980000161489</v>
+        <v>2251.38837127732</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.32856834734214</v>
+        <v>-1.31736173805698</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0859675664575983</v>
+        <v>0.287776586201961</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.4542974994812</v>
+        <v>-4.57772383585249</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000705768370257505</v>
+        <v>0.00000470062693749892</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000139416398063175</v>
+        <v>0.000707601041658171</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -899,22 +1121,22 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>6.04047746188135</v>
+        <v>1082.85408201615</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.36965566796153</v>
+        <v>-23.8046199217173</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0886117833876217</v>
+        <v>5.18616003096519</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.4568119001751</v>
+        <v>-4.59002803222157</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000678757748686683</v>
+        <v>0.00000443186485932714</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000139416398063175</v>
+        <v>0.000707601041658171</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -925,22 +1147,22 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>5.67714979010764</v>
+        <v>5472.89428169516</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.33320349058628</v>
+        <v>-1.05305947367901</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0865483833725015</v>
+        <v>0.234536963642318</v>
       </c>
       <c r="E15" t="n">
-        <v>-15.4041408820799</v>
+        <v>-4.48995099674345</v>
       </c>
       <c r="F15" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000015351579353805</v>
+        <v>0.00000712395607140652</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000281591827004081</v>
+        <v>0.00100536830057725</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -951,22 +1173,22 @@
         <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>6.26061899497447</v>
+        <v>2035.17632669229</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.32007012325033</v>
+        <v>-1.05061005350592</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0866361226295742</v>
+        <v>0.237256063401178</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.2369483211349</v>
+        <v>-4.42816945727298</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000201043528889077</v>
+        <v>0.00000950362238857006</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00000000000000000000000000000000000000000000000003441865214581</v>
+        <v>0.00119217663074395</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -977,22 +1199,22 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>9.35125160221742</v>
+        <v>2186.73372498045</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.22871746280164</v>
+        <v>-1.52528607199028</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0806910724348767</v>
+        <v>0.344417627784693</v>
       </c>
       <c r="E17" t="n">
-        <v>-15.2274275917364</v>
+        <v>-4.42859467385853</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000232563370888453</v>
+        <v>0.00000948490825845917</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000373264210275967</v>
+        <v>0.00119217663074395</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -1003,22 +1225,22 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>8.05904576929344</v>
+        <v>2314.45317387882</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.39793338014876</v>
+        <v>-1.23918651135218</v>
       </c>
       <c r="D18" t="n">
-        <v>0.158545961014797</v>
+        <v>0.282696365558486</v>
       </c>
       <c r="E18" t="n">
-        <v>-15.1245314910606</v>
+        <v>-4.38345398924419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000111591999278755</v>
+        <v>0.0000116812328815597</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000000000000000000000000000000000000000000000000168569561263437</v>
+        <v>0.00131881119232809</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -1029,22 +1251,22 @@
         <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>6.18799259921324</v>
+        <v>815.291325330114</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.24648513119967</v>
+        <v>-1.28551166561351</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0830731390994312</v>
+        <v>0.293199044920686</v>
       </c>
       <c r="E19" t="n">
-        <v>-15.0046711212843</v>
+        <v>-4.38443333252077</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000684292790436504</v>
+        <v>0.0000116288088101118</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000000000000000000000000000000000000000000000000976257714356079</v>
+        <v>0.00131881119232809</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -1055,22 +1277,22 @@
         <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>190.102376679889</v>
+        <v>2016.53506731348</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.13110097572669</v>
+        <v>-1.06532645296259</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0755121793044162</v>
+        <v>0.246815298203977</v>
       </c>
       <c r="E20" t="n">
-        <v>-14.9790535268069</v>
+        <v>-4.31629020046467</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000100640033700402</v>
+        <v>0.0000158673347520575</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00000000000000000000000000000000000000000000000136022950811912</v>
+        <v>0.00165760908305519</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1081,22 +1303,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>4.61056227622848</v>
+        <v>1208.47345192443</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.26014712367169</v>
+        <v>-1.13082710261208</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0864796985274534</v>
+        <v>0.262227787617094</v>
       </c>
       <c r="E21" t="n">
-        <v>-14.5715947803824</v>
+        <v>-4.31238471287917</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00000000000000000000000000000000000000000000000425832718479651</v>
+        <v>0.0000161503099323357</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000000000000000000000000000000000000000000000546769210527872</v>
+        <v>0.00165760908305519</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -1107,22 +1329,22 @@
         <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>5.34192936770191</v>
+        <v>1561.01772112426</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.22603737990674</v>
+        <v>-1.37710261115562</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0849736924328802</v>
+        <v>0.320747560857577</v>
       </c>
       <c r="E22" t="n">
-        <v>-14.4284347873334</v>
+        <v>-4.29341569262036</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0000000000000000000000000000000000000000000000342771800731316</v>
+        <v>0.0000175945143033492</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00000000000000000000000000000000000000000000419160944894295</v>
+        <v>0.00172732231725924</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -1133,22 +1355,22 @@
         <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>20.6708081403673</v>
+        <v>2379.87162222659</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.07692824450406</v>
+        <v>-1.28089154234405</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0752113772925044</v>
+        <v>0.300811990947323</v>
       </c>
       <c r="E23" t="n">
-        <v>-14.3186879867361</v>
+        <v>-4.25811330961322</v>
       </c>
       <c r="F23" t="n">
-        <v>0.000000000000000000000000000000000000000000000167250949586135</v>
+        <v>0.0000206159453040819</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0000000000000000000000000000000000000000000195227472062362</v>
+        <v>0.00186203217986468</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -1159,22 +1381,22 @@
         <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>4.51559926889189</v>
+        <v>528.038527037036</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.26483159467439</v>
+        <v>-1.3175132214008</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0885669871499221</v>
+        <v>0.313129192732434</v>
       </c>
       <c r="E24" t="n">
-        <v>-14.2810728396275</v>
+        <v>-4.207570715154</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000000000000000000000000000000000000000000000287146579471405</v>
+        <v>0.0000258130639335692</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0000000000000000000000000000000000000000000320605398296769</v>
+        <v>0.00215873697637034</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -1185,22 +1407,22 @@
         <v>32</v>
       </c>
       <c r="B25" t="n">
-        <v>6.42659065261963</v>
+        <v>172.395510015681</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.20164676693017</v>
+        <v>-8.7690272782365</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0843120398088089</v>
+        <v>2.08111362123526</v>
       </c>
       <c r="E25" t="n">
-        <v>-14.2523745084937</v>
+        <v>-4.21362254744727</v>
       </c>
       <c r="F25" t="n">
-        <v>0.000000000000000000000000000000000000000000000433293893749062</v>
+        <v>0.0000251307131827169</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0000000000000000000000000000000000000000000463624466311496</v>
+        <v>0.00215873697637034</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1211,22 +1433,22 @@
         <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>4.56099578627133</v>
+        <v>1606.22564538633</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.26176669917023</v>
+        <v>-1.3466050503063</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0886154037096892</v>
+        <v>0.322199677036441</v>
       </c>
       <c r="E26" t="n">
-        <v>-14.2386836413213</v>
+        <v>-4.1794115459464</v>
       </c>
       <c r="F26" t="n">
-        <v>0.000000000000000000000000000000000000000000000527106017684263</v>
+        <v>0.0000292264367804724</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0000000000000000000000000000000000000000000541443301365275</v>
+        <v>0.00235690336608238</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -1237,22 +1459,22 @@
         <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>4.51815762611249</v>
+        <v>988.832239682887</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.19705091646345</v>
+        <v>-1.08972773720776</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0852759375239168</v>
+        <v>0.26597987196876</v>
       </c>
       <c r="E27" t="n">
-        <v>-14.0373820707362</v>
+        <v>-4.09703083598654</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0000000000000000000000000000000000000000000092050674349023</v>
+        <v>0.0000418483175641834</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000000000000000000000000000000000000000000909177429724197</v>
+        <v>0.0027893716282187</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -1263,22 +1485,22 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>8.78121169853427</v>
+        <v>1564.58771406993</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.23619031411882</v>
+        <v>-1.10631156869541</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0887591460033984</v>
+        <v>0.270497213505723</v>
       </c>
       <c r="E28" t="n">
-        <v>-13.9274696724942</v>
+        <v>-4.08991854059158</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0000000000000000000000000000000000000000000431368862856544</v>
+        <v>0.0000431524716966796</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00000000000000000000000000000000000000000410279718450224</v>
+        <v>0.0027893716282187</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1289,22 +1511,22 @@
         <v>36</v>
       </c>
       <c r="B29" t="n">
-        <v>5.16969804101942</v>
+        <v>2362.56616476726</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.2198089379424</v>
+        <v>-1.21242226434589</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0880747608583462</v>
+        <v>0.294712459057961</v>
       </c>
       <c r="E29" t="n">
-        <v>-13.8496991198678</v>
+        <v>-4.1139158765848</v>
       </c>
       <c r="F29" t="n">
-        <v>0.000000000000000000000000000000000000000000127746055526747</v>
+        <v>0.0000389003246188413</v>
       </c>
       <c r="G29" t="n">
-        <v>0.000000000000000000000000000000000000000011716138235453</v>
+        <v>0.0027893716282187</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -1315,22 +1537,22 @@
         <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>7.41215748882346</v>
+        <v>931.024569014223</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.11457626032446</v>
+        <v>-1.43200512056675</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0814947559066455</v>
+        <v>0.349051224857651</v>
       </c>
       <c r="E30" t="n">
-        <v>-13.6766623560569</v>
+        <v>-4.10256437619075</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00000000000000000000000000000000000000000139971487319829</v>
+        <v>0.0000408596116200932</v>
       </c>
       <c r="G30" t="n">
-        <v>0.000000000000000000000000000000000000000123947165323214</v>
+        <v>0.0027893716282187</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -1341,22 +1563,22 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>5.5982048035049</v>
+        <v>1370.09338400082</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.09230289157938</v>
+        <v>-1.43535713795236</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0800439878434027</v>
+        <v>0.350988777174405</v>
       </c>
       <c r="E31" t="n">
-        <v>-13.6462827628772</v>
+        <v>-4.08946733142735</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00000000000000000000000000000000000000000212442050170186</v>
+        <v>0.0000432364955658346</v>
       </c>
       <c r="G31" t="n">
-        <v>0.000000000000000000000000000000000000000181850394945679</v>
+        <v>0.0027893716282187</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -1367,22 +1589,22 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>5.4082594866824</v>
+        <v>2090.00917282923</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.16386717150074</v>
+        <v>-1.30035797644992</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0859399460453593</v>
+        <v>0.324894056380754</v>
       </c>
       <c r="E32" t="n">
-        <v>-13.5427961624091</v>
+        <v>-4.00240617183216</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00000000000000000000000000000000000000000873977021311608</v>
+        <v>0.0000627015366522682</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00000000000000000000000000000000000000072399128733168</v>
+        <v>0.00353950174402054</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -1393,22 +1615,22 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>4.36144828053559</v>
+        <v>1268.91869192444</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.19101000146173</v>
+        <v>-1.1107712179754</v>
       </c>
       <c r="D33" t="n">
-        <v>0.088238945545571</v>
+        <v>0.278379357460036</v>
       </c>
       <c r="E33" t="n">
-        <v>-13.4975547826173</v>
+        <v>-3.99013500178388</v>
       </c>
       <c r="F33" t="n">
-        <v>0.000000000000000000000000000000000000000016165282030348</v>
+        <v>0.0000660356979452775</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0000000000000000000000000000000000000012579528561798</v>
+        <v>0.00363679526732772</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -1419,22 +1641,22 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>5.42423538973032</v>
+        <v>526.856463300451</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.15169881774206</v>
+        <v>-1.3142410445348</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0861093560647004</v>
+        <v>0.330241035118167</v>
       </c>
       <c r="E34" t="n">
-        <v>-13.3748395107809</v>
+        <v>-3.97964185179026</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0000000000000000000000000000000000000000848366124062636</v>
+        <v>0.0000690191676795261</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00000000000000000000000000000000000000640765943115543</v>
+        <v>0.00371060191953262</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -1445,22 +1667,22 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>4.14343350170454</v>
+        <v>752.234513523057</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.14983982759709</v>
+        <v>-1.23950562398478</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0861252487857928</v>
+        <v>0.311987739424564</v>
       </c>
       <c r="E35" t="n">
-        <v>-13.3507867182703</v>
+        <v>-3.97293055897308</v>
       </c>
       <c r="F35" t="n">
-        <v>0.000000000000000000000000000000000000000117204530534771</v>
+        <v>0.0000709937508657642</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00000000000000000000000000000000000000859946384037977</v>
+        <v>0.00372799742918362</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -1471,22 +1693,22 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>4.9104672350686</v>
+        <v>1777.99057221789</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.13918677225602</v>
+        <v>-1.08126443245406</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0860947357450991</v>
+        <v>0.274066800454952</v>
       </c>
       <c r="E36" t="n">
-        <v>-13.2317819713021</v>
+        <v>-3.9452587130552</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00000000000000000000000000000000000000057507559433977</v>
+        <v>0.0000797138655826011</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0000000000000000000000000000000000000406569771734311</v>
+        <v>0.00409077064739803</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -1497,22 +1719,22 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>13.0081474729829</v>
+        <v>463.780567490536</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.24373487693505</v>
+        <v>-1.76155201324501</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0940058788903539</v>
+        <v>0.447992934015371</v>
       </c>
       <c r="E37" t="n">
-        <v>-13.2303946478253</v>
+        <v>-3.93209776202534</v>
       </c>
       <c r="F37" t="n">
-        <v>0.000000000000000000000000000000000000000585789780146788</v>
+        <v>0.000084207805153336</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0000000000000000000000000000000000000406569771734311</v>
+        <v>0.0042253605341385</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -1523,22 +1745,22 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>7.08733331814876</v>
+        <v>1959.8592594067</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.42303843409666</v>
+        <v>-1.16630915938789</v>
       </c>
       <c r="D38" t="n">
-        <v>0.108528899095501</v>
+        <v>0.297789331507677</v>
       </c>
       <c r="E38" t="n">
-        <v>-13.1120691903864</v>
+        <v>-3.91655790179919</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00000000000000000000000000000000000000280830397029045</v>
+        <v>0.0000898222499262664</v>
       </c>
       <c r="G38" t="n">
-        <v>0.000000000000000000000000000000000000189782226202786</v>
+        <v>0.00440910087681543</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
@@ -1549,22 +1771,22 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>4.5000624987556</v>
+        <v>1089.82073008817</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.13077574064914</v>
+        <v>-1.22497314649648</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0863699660362366</v>
+        <v>0.314635034790024</v>
       </c>
       <c r="E39" t="n">
-        <v>-13.0922332443054</v>
+        <v>-3.89331451061698</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00000000000000000000000000000000000000364724138695692</v>
+        <v>0.0000988838172084911</v>
       </c>
       <c r="G39" t="n">
-        <v>0.000000000000000000000000000000000000240156817479625</v>
+        <v>0.0046429093291098</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
@@ -1575,22 +1797,22 @@
         <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>4.44337553787823</v>
+        <v>522.660905459425</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.1086785254671</v>
+        <v>-1.22714116312399</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0849619266301788</v>
+        <v>0.315286417929642</v>
       </c>
       <c r="E40" t="n">
-        <v>-13.0491217588903</v>
+        <v>-3.89214724561282</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00000000000000000000000000000000000000642841643152562</v>
+        <v>0.0000993609078863575</v>
       </c>
       <c r="G40" t="n">
-        <v>0.000000000000000000000000000000000000412704334903945</v>
+        <v>0.0046429093291098</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
@@ -1601,22 +1823,22 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>3.42639092648718</v>
+        <v>298.323335718934</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.03450895712586</v>
+        <v>-21.9684152639614</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0809032379959828</v>
+        <v>5.64919541383952</v>
       </c>
       <c r="E41" t="n">
-        <v>-12.7869907651562</v>
+        <v>-3.88876886965933</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000000000000000000000000000000000000193835026535649</v>
+        <v>0.000100754011127715</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0000000000000000000000000000000000121406914181353</v>
+        <v>0.0046429093291098</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
@@ -1627,22 +1849,22 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>3.29420020917859</v>
+        <v>945.743936638299</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.45950952456226</v>
+        <v>-1.3902282398049</v>
       </c>
       <c r="D42" t="n">
-        <v>0.115204004843528</v>
+        <v>0.360012107684756</v>
       </c>
       <c r="E42" t="n">
-        <v>-12.6689130863514</v>
+        <v>-3.8616152349583</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000000000000000000000000000000000000879242189556843</v>
+        <v>0.000112639862030395</v>
       </c>
       <c r="G42" t="n">
-        <v>0.000000000000000000000000000000000051315771426863</v>
+        <v>0.0048911693935506</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
@@ -1653,22 +1875,22 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>4.16629561427846</v>
+        <v>510.662664250211</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.69813829370887</v>
+        <v>-1.40022674501328</v>
       </c>
       <c r="D43" t="n">
-        <v>0.134223836307236</v>
+        <v>0.368063226881772</v>
       </c>
       <c r="E43" t="n">
-        <v>-12.6515404448869</v>
+        <v>-3.80431035416385</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00000000000000000000000000000000000109702536160911</v>
+        <v>0.000142199805859125</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0000000000000000000000000000000000626035806358268</v>
+        <v>0.00573369931481971</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
@@ -1679,22 +1901,22 @@
         <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>4.41999745682307</v>
+        <v>831.237643247625</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.75199455850817</v>
+        <v>-1.11303274423239</v>
       </c>
       <c r="D44" t="n">
-        <v>0.140287785209192</v>
+        <v>0.299802177189441</v>
       </c>
       <c r="E44" t="n">
-        <v>-12.4885752233928</v>
+        <v>-3.71255724246817</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00000000000000000000000000000000000861831979166662</v>
+        <v>0.000205175636399077</v>
       </c>
       <c r="G44" t="n">
-        <v>0.000000000000000000000000000000000461080108854164</v>
+        <v>0.00791313617523521</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
@@ -1705,22 +1927,22 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>3.16546851843752</v>
+        <v>1576.42547723777</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.07513609574383</v>
+        <v>-1.3541478683653</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0870999955863121</v>
+        <v>0.364939954368223</v>
       </c>
       <c r="E45" t="n">
-        <v>-12.3436986248573</v>
+        <v>-3.71060458619713</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0000000000000000000000000000000000526791463718056</v>
+        <v>0.000206764851345827</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00000000000000000000000000000000265254995848621</v>
+        <v>0.00791313617523521</v>
       </c>
       <c r="H45" t="s">
         <v>9</v>
@@ -1731,22 +1953,22 @@
         <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>3.654876017395</v>
+        <v>129.289432409593</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.02219564717746</v>
+        <v>-20.9230876664356</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0830680061578765</v>
+        <v>5.64933629296505</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.305527656878</v>
+        <v>-3.70363642406817</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0000000000000000000000000000000000845818515462423</v>
+        <v>0.000212530801725999</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00000000000000000000000000000000417704220712981</v>
+        <v>0.00799824250495508</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
@@ -1757,22 +1979,22 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>4.66918862645707</v>
+        <v>624.562443953728</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.71535505285595</v>
+        <v>-1.34845929455826</v>
       </c>
       <c r="D47" t="n">
-        <v>0.140101525403882</v>
+        <v>0.36481898337297</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.2436572186559</v>
+        <v>-3.69624212559047</v>
       </c>
       <c r="F47" t="n">
-        <v>0.000000000000000000000000000000000181658741905634</v>
+        <v>0.000218814299170395</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0000000000000000000000000000000086388823928457</v>
+        <v>0.00809971618896314</v>
       </c>
       <c r="H47" t="s">
         <v>9</v>
@@ -1783,22 +2005,22 @@
         <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>6.3879278848508</v>
+        <v>496.772123977331</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.0189269488791</v>
+        <v>-1.23676932059834</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0833909320918147</v>
+        <v>0.336589801572484</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.2186780183396</v>
+        <v>-3.67441115215132</v>
       </c>
       <c r="F48" t="n">
-        <v>0.000000000000000000000000000000000247069702862755</v>
+        <v>0.000238398581003158</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0000000000000000000000000000000115359090354828</v>
+        <v>0.00868232251459889</v>
       </c>
       <c r="H48" t="s">
         <v>9</v>
@@ -1809,22 +2031,22 @@
         <v>56</v>
       </c>
       <c r="B49" t="n">
-        <v>4.71057844494778</v>
+        <v>918.888404205341</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.01231746975904</v>
+        <v>-1.04964256958235</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0831889830797732</v>
+        <v>0.288705967321309</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.1688886230078</v>
+        <v>-3.63568020197577</v>
       </c>
       <c r="F49" t="n">
-        <v>0.000000000000000000000000000000000455238571578242</v>
+        <v>0.00027724810510388</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0000000000000000000000000000000208759402109451</v>
+        <v>0.00978165970819626</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -1835,22 +2057,22 @@
         <v>57</v>
       </c>
       <c r="B50" t="n">
-        <v>3.77248483021707</v>
+        <v>115.99329693548</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.06079833684407</v>
+        <v>-2.1946526670946</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0872230517708617</v>
+        <v>0.605330643341722</v>
       </c>
       <c r="E50" t="n">
-        <v>-12.1619034797227</v>
+        <v>-3.62554364500538</v>
       </c>
       <c r="F50" t="n">
-        <v>0.000000000000000000000000000000000495895550565049</v>
+        <v>0.000288354188351409</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0000000000000000000000000000000223413995412464</v>
+        <v>0.0100169808814997</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
@@ -1861,22 +2083,22 @@
         <v>58</v>
       </c>
       <c r="B51" t="n">
-        <v>4.29298427974048</v>
+        <v>246.943299386488</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.02561006118159</v>
+        <v>-1.42884359780168</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0849195820566807</v>
+        <v>0.395242329493138</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.0774270944602</v>
+        <v>-3.61510772298616</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00000000000000000000000000000000139001417529024</v>
+        <v>0.000300222758355948</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0000000000000000000000000000000615440758990575</v>
+        <v>0.0102025226440686</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -1887,22 +2109,22 @@
         <v>59</v>
       </c>
       <c r="B52" t="n">
-        <v>10.4740406204977</v>
+        <v>224.750438961353</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.10906426060531</v>
+        <v>-1.71093827256112</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0921247386044595</v>
+        <v>0.474356380802785</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.0387235546699</v>
+        <v>-3.60686256536823</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00000000000000000000000000000000222369716635109</v>
+        <v>0.000309921704602748</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0000000000000000000000000000000967873614099932</v>
+        <v>0.0102025226440686</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -1913,22 +2135,22 @@
         <v>60</v>
       </c>
       <c r="B53" t="n">
-        <v>4.04262617119086</v>
+        <v>1502.91725306889</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.00175476778701</v>
+        <v>-1.26953885052912</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0832966383912671</v>
+        <v>0.352648191259594</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.0263528893146</v>
+        <v>-3.60001520493998</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00000000000000000000000000000000258321841874696</v>
+        <v>0.000318198572960089</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00000000000000000000000000000011056174832237</v>
+        <v>0.0102641768249126</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
@@ -1939,22 +2161,22 @@
         <v>61</v>
       </c>
       <c r="B54" t="n">
-        <v>3.79264156235812</v>
+        <v>717.532052163144</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.03396110072979</v>
+        <v>-1.14881435296717</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0862337274801577</v>
+        <v>0.322004466180015</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.9902169480926</v>
+        <v>-3.56769695338614</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00000000000000000000000000000000399856537910214</v>
+        <v>0.000360132668330465</v>
       </c>
       <c r="G54" t="n">
-        <v>0.000000000000000000000000000000165617998282811</v>
+        <v>0.0112941606262526</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
@@ -1965,22 +2187,22 @@
         <v>62</v>
       </c>
       <c r="B55" t="n">
-        <v>3.09446559249682</v>
+        <v>681.555382821223</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.05222416593941</v>
+        <v>-1.05026818366946</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0885309833359017</v>
+        <v>0.295265455910501</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.8853775965313</v>
+        <v>-3.55703033540032</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0000000000000000000000000000000140996449910816</v>
+        <v>0.000375070858449361</v>
       </c>
       <c r="G55" t="n">
-        <v>0.000000000000000000000000000000565748255267151</v>
+        <v>0.0114625054519255</v>
       </c>
       <c r="H55" t="s">
         <v>9</v>
@@ -1991,22 +2213,22 @@
         <v>63</v>
       </c>
       <c r="B56" t="n">
-        <v>3.71617305230501</v>
+        <v>167.876457605127</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.04433247795789</v>
+        <v>-2.39346103793764</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0887432625381653</v>
+        <v>0.673883451409956</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.7680198821714</v>
+        <v>-3.55174330654631</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0000000000000000000000000000000570478320394474</v>
+        <v>0.000382687999234025</v>
       </c>
       <c r="G56" t="n">
-        <v>0.00000000000000000000000000000218654974145225</v>
+        <v>0.0115214600302724</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
@@ -2017,22 +2239,22 @@
         <v>64</v>
       </c>
       <c r="B57" t="n">
-        <v>12.8678213202815</v>
+        <v>397.005229249657</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.95775223826745</v>
+        <v>-1.32845208742849</v>
       </c>
       <c r="D57" t="n">
-        <v>0.176664245669533</v>
+        <v>0.37728104525379</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.0817683048873</v>
+        <v>-3.52112067155365</v>
       </c>
       <c r="F57" t="n">
-        <v>0.000000000000000000000000000153804499461171</v>
+        <v>0.000429727010443892</v>
       </c>
       <c r="G57" t="n">
-        <v>0.00000000000000000000000000499961967868719</v>
+        <v>0.0127674156523988</v>
       </c>
       <c r="H57" t="s">
         <v>9</v>
@@ -2043,22 +2265,22 @@
         <v>65</v>
       </c>
       <c r="B58" t="n">
-        <v>4.93657920631384</v>
+        <v>769.473961018747</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.08873811284525</v>
+        <v>-1.14270957947808</v>
       </c>
       <c r="D58" t="n">
-        <v>0.110046716081225</v>
+        <v>0.325943681578809</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.89341755588289</v>
+        <v>-3.50584976503613</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0000000000000000000000444585735030722</v>
+        <v>0.000455152048738793</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00000000000000000000109778477649894</v>
+        <v>0.0132091444399661</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -2069,22 +2291,22 @@
         <v>66</v>
       </c>
       <c r="B59" t="n">
-        <v>3.08233373158714</v>
+        <v>555.50791487705</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.21019495575216</v>
+        <v>-1.2226156195949</v>
       </c>
       <c r="D59" t="n">
-        <v>0.129064927446965</v>
+        <v>0.348802286028985</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.3766368578284</v>
+        <v>-3.50518235850466</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00000000000000000000681106066201875</v>
+        <v>0.00045629462635844</v>
       </c>
       <c r="G59" t="n">
-        <v>0.000000000000000000145756698167201</v>
+        <v>0.0132091444399661</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
@@ -2095,22 +2317,22 @@
         <v>67</v>
       </c>
       <c r="B60" t="n">
-        <v>2.49502578669251</v>
+        <v>761.537906084136</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.14804569821658</v>
+        <v>-1.12546852136791</v>
       </c>
       <c r="D60" t="n">
-        <v>0.127462495007904</v>
+        <v>0.324657887457418</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.00692943555976</v>
+        <v>-3.4666292267904</v>
       </c>
       <c r="F60" t="n">
-        <v>0.000000000000000000211906335631361</v>
+        <v>0.000527028327692798</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00000000000000000409154488647621</v>
+        <v>0.0148753745491292</v>
       </c>
       <c r="H60" t="s">
         <v>9</v>
@@ -2121,22 +2343,22 @@
         <v>68</v>
       </c>
       <c r="B61" t="n">
-        <v>6.13682751518173</v>
+        <v>380.011301979867</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.14406911122646</v>
+        <v>-1.23150187923996</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138995797601571</v>
+        <v>0.356829716121234</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.23096187775347</v>
+        <v>-3.451231283724</v>
       </c>
       <c r="F61" t="n">
-        <v>0.000000000000000185716071258556</v>
+        <v>0.000558035139506657</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00000000000000264954928328873</v>
+        <v>0.0153663822561711</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -2147,22 +2369,22 @@
         <v>69</v>
       </c>
       <c r="B62" t="n">
-        <v>2.54596973620499</v>
+        <v>140.14926399088</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.04125027994338</v>
+        <v>-2.1142331544313</v>
       </c>
       <c r="D62" t="n">
-        <v>0.134605575042333</v>
+        <v>0.613530539911688</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.73556577887588</v>
+        <v>-3.44601126903255</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0000000000000102944256580053</v>
+        <v>0.000568926633925944</v>
       </c>
       <c r="G62" t="n">
-        <v>0.000000000000126488445405539</v>
+        <v>0.0154775462578889</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -2173,24 +2395,1948 @@
         <v>70</v>
       </c>
       <c r="B63" t="n">
-        <v>3.08134582032196</v>
+        <v>1222.50639770014</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.02259546543488</v>
+        <v>-1.14268559490404</v>
       </c>
       <c r="D63" t="n">
-        <v>0.136337695575869</v>
+        <v>0.334869338022914</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.50046024406972</v>
+        <v>-3.41233270758833</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0000000000000635941434404196</v>
+        <v>0.00064409447851718</v>
       </c>
       <c r="G63" t="n">
-        <v>0.000000000000725821157133322</v>
+        <v>0.0173138730058547</v>
       </c>
       <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="n">
+        <v>278.423827592574</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.46176274848523</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.429521830592702</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-3.4032327215316</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.000665935325065147</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0176903760470247</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>567.274471249177</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.01794449694089</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.300857954169091</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-3.38347210979431</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.000715754768387013</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0187927240350916</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="n">
+        <v>570.632219365209</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.0735007474292</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.319172575232076</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-3.36338655239611</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.000769924738272332</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.019648593765767</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="n">
+        <v>288.489804333356</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.23468917688638</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.368791230771239</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-3.34793529201962</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.000814160186107714</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0202019087937496</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>740.103270207773</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.20008838612626</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.359330163888402</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-3.33979305588987</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.000838408403249536</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0205774584188853</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="n">
+        <v>532.238294230501</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.00337085778534</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.305099261689617</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-3.2886702256464</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00100661892125978</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0236765158771312</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="n">
+        <v>216.505422596758</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.34876356800105</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.414029556843251</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-3.25765043994596</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.00112338694785721</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0258659985659489</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="n">
+        <v>417.270298958193</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.10966692607471</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.341814834674</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-3.24639779643572</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.00116875404423771</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0263904663188875</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>363.295670179307</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.20821491737164</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.382366591486174</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-3.15983389834237</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.00157859105725833</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0336269679932953</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>112.518152401606</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-2.1455473508395</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.683553195103979</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-3.13881548094166</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.00169632226781365</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0354657007474372</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1248.89352484809</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.16327851809376</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.371994755713175</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-3.12713687552815</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.00176517725977536</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0365666995648876</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>402.107380917548</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.02601375900237</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.329980168712366</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-3.10931945700261</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.00187518848511991</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0374752855109139</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>769.104564697315</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.2886497477997</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.415774938402601</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-3.09939255297749</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.00193917900438864</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0380753581905178</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>412.204311649582</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.04697070863331</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.340816945832534</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-3.07194440134369</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.00212669333184204</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0395715465694936</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>703.448461297217</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.07808787273427</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.350855159238013</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3.0727433938143</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0021210078727351</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0395715465694936</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="n">
+        <v>149.203120489975</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.57352418485981</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.510696798628216</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3.0811318752858</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.00206215293932438</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0395715465694936</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="n">
+        <v>459.391019038823</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.10732326902257</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.361080502228818</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-3.06669361039289</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.00216440587476127</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0397335647578126</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="n">
+        <v>287.025906929009</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.2600951848062</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.411954656855731</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-3.05882010030898</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00222210544738541</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.040152952749725</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="n">
+        <v>208.614152196644</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.28826522743299</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.422630536418612</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-3.04820668745282</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.00230211528010516</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0406368471628554</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>356.412872065054</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.1254825813361</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.370417250098479</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-3.03841838099299</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.00237823518341833</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0413081157242968</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="n">
+        <v>340.942250518207</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.35271613974902</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.445817950421098</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-3.03423435164805</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.00241147025730264</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0415656476411402</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="n">
+        <v>899.168736875882</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.01361822818341</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.338276629063251</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-2.99641814153789</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.00273171569291899</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0456904743304524</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="n">
+        <v>278.234085035928</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.20793613128669</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.403806125663804</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-2.9913764416055</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.00277722901962142</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0457735994620814</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="n">
+        <v>431.993132310553</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.00425437857804</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.338755455196582</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-2.964540830775</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.00303135012617815</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0485445998929806</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="n">
+        <v>407.479759701957</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.07011517566841</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.361463975057897</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-2.96050298095961</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.00307137149428972</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0488391326345506</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="n">
+        <v>366.379953336203</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.09740675664985</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.371257294914878</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-2.95591971304286</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.00311738227748829</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0492241201578221</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2475.38258644145</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.02027079929076</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.347802028635566</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-2.93348145004588</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.00335183682910497</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0521961900697863</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>142.199034152487</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.57303117359854</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.542683519114684</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-2.89861607768139</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0037481353862517</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0569279068415471</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1940.82945023239</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-12.2618898457682</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.22874102416139</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-2.8996549506599</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.00373573649137719</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0569279068415471</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>247.312144370329</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.51940057867314</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.528331238727652</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.87584845888012</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.00402943112839143</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.06025467210535</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="n">
+        <v>351.468404232437</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.00347974009069</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.352704092183937</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-2.84510376354628</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.00443969578248132</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0655217848159662</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="n">
+        <v>487.632957745872</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.05831361114626</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.374627390454862</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-2.82497659837761</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.00472840692972911</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0684406592777457</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="n">
+        <v>214.589639843764</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.24370095346201</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.440648664458633</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-2.8224321410119</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.00476609071998043</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0685467060236676</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5656.82630324047</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.02190291361094</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.368073902302158</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-2.7763525401267</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.00549725652172454</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0768514059299079</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="n">
+        <v>281.218845630623</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.03383283879609</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.372501149097626</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-2.77538160969575</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.00551369697105628</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0768514059299079</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="n">
+        <v>320.47291212895</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.05249671248173</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.381030289066441</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-2.76223896808949</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.00574064447340531</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0785598498239345</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="n">
+        <v>138.220263753314</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.37438048188447</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.498528181146184</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-2.75687620853165</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.00583564396093202</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0789034973879311</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7455.52245974554</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-8.95263009959046</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.28183228535055</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-2.72793650655252</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0063731873949767</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0841558896950725</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1870.93031046071</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-1.17086518327048</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.431251648159588</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-2.71503932394755</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.00662679012195168</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0866484163659492</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="n">
+        <v>977.261772092805</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-1.0974502550804</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.41566679892434</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2.64021629324347</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.00828531303948468</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0979488839955833</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="n">
+        <v>262.684458206034</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.01267182726455</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.384738752326611</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.6321024880927</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.00848582602889712</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0987680163569571</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="n">
+        <v>112.843249216956</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-1.56121864581679</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.594200191245478</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-2.62742871648086</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.00860328653050078</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0996216460813885</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="n">
+        <v>287.802340049462</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-1.29833571972107</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.507187793541585</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-2.55987177975058</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0104710788565154</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.115335102722009</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1013.52019510548</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.04417851531887</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.416500395275001</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-2.50702886999526</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0121750767024063</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.129067245042411</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="n">
+        <v>171.2177612823</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-1.11005000343039</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.448262361417407</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-2.47633997179779</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0132737115489406</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.136858633230629</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="n">
+        <v>184.780363100671</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-1.03972443957033</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.424096313342294</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.45162338567928</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0142213420585603</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.142805588331918</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="n">
+        <v>113.514036963625</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-1.38082624424234</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.564655054486461</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2.44543324861966</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0144678227526462</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.143913408702533</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="n">
+        <v>547.20438068008</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-7.99098298331671</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3.29927547093753</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-2.42204176453504</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0154335766734438</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.150596340949763</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="n">
+        <v>151.420875535373</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.59688332481189</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.6602275053976</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-2.41868645543663</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.015576660246947</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.150953213895306</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="n">
+        <v>234.383193353524</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1.02854734158018</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.436732214967642</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-2.35509840201825</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0185178012533528</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.16997233833362</v>
+      </c>
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="n">
+        <v>250.396896941649</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-1.03344287899589</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.440409659974979</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-2.34654907218566</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0189481709019885</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.171827188340121</v>
+      </c>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="n">
+        <v>418.37423739367</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-1.36358602388799</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.586656384046799</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-2.32433509796975</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0201075410952708</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.178050305071064</v>
+      </c>
+      <c r="H115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="n">
+        <v>234.923742895557</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-4.75530310046301</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.04568889795621</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-2.32454852016546</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0200961142419808</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.178050305071064</v>
+      </c>
+      <c r="H116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="n">
+        <v>139.535743108869</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-1.11429799679848</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.480095216901426</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.32099374784497</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0202871812867844</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.178243016908791</v>
+      </c>
+      <c r="H117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="n">
+        <v>152.782389493964</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.77063047227471</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.762844586675757</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-2.32108938465511</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0202820201881929</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.178243016908791</v>
+      </c>
+      <c r="H118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="n">
+        <v>171.980345952752</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-1.22500971036456</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.53358270429846</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-2.29581974920864</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0216861897516871</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.184782703620036</v>
+      </c>
+      <c r="H119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="n">
+        <v>170.920295905947</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.00493766336456</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.440978217280426</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-2.27888277466889</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0226740346351014</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.188354296049199</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="n">
+        <v>112.447232656567</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-1.19135547776285</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.527794987403389</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-2.25723151260683</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0239936122952085</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.196295567255728</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="n">
+        <v>185.364602412172</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-1.0934745522306</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.486846987906731</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-2.24603331106587</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0247018743228037</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.198997677833353</v>
+      </c>
+      <c r="H122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="n">
+        <v>144.868860432522</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-1.11493360208797</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.496617311386983</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-2.24505585392124</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0247645471528663</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.198997677833353</v>
+      </c>
+      <c r="H123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="n">
+        <v>181.276940440534</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.00880333890112</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.451897612417381</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-2.23237147349513</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0255904215791624</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.201741156565475</v>
+      </c>
+      <c r="H124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="n">
+        <v>810.817576546134</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-7.55756349142923</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3.42764904082616</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-2.20488253068279</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0274623386741925</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.210203256699412</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="n">
+        <v>160.942748036986</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-1.11518258440193</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.510541477644057</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-2.18431338732369</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0289392277171748</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.214698210057538</v>
+      </c>
+      <c r="H126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="n">
+        <v>143.013814479335</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.03131425653947</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.473209609047456</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-2.1794026089526</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0293017724979752</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.215261814375362</v>
+      </c>
+      <c r="H127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="n">
+        <v>175.59171942739</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.10151674004093</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.506324932990296</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-2.17551352554475</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.029591655664831</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.215541801584479</v>
+      </c>
+      <c r="H128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="n">
+        <v>114.691679348196</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.14427865596323</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.532386126556765</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-2.14933973460937</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.031607478913239</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.226570436146329</v>
+      </c>
+      <c r="H129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="n">
+        <v>138.501954384212</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-1.10330158056725</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.522407418791716</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-2.11195618760371</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0346902073446186</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.23868165503243</v>
+      </c>
+      <c r="H130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="n">
+        <v>117.174680223267</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-1.18037278539419</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.558867745520468</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-2.11207892181167</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0346796805836331</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.23868165503243</v>
+      </c>
+      <c r="H131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="n">
+        <v>114.314166878626</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-1.30438797173176</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.620756116895767</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-2.10128895427507</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0356156087868729</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.243697104971997</v>
+      </c>
+      <c r="H132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="n">
+        <v>154.952214628959</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-1.22688425688274</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.589150643238608</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-2.08246272997083</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0373002237670346</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.251414642584967</v>
+      </c>
+      <c r="H133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="n">
+        <v>140.833242484851</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-1.00675834902359</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.48569964331423</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-2.07280026428236</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0381908718421783</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.255133102424966</v>
+      </c>
+      <c r="H134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="n">
+        <v>112.359059854447</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.10955427123364</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.539494027438253</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-2.05665719137295</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0397192127211053</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.262239714398409</v>
+      </c>
+      <c r="H135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="n">
+        <v>130.67655056185</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-1.00550625638909</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.497285872774514</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-2.02198838020283</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.043177552301027</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.276189555511952</v>
+      </c>
+      <c r="H136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="n">
+        <v>223.253635749477</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-1.3087379029371</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.648730638567484</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-2.01738260093131</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0436556015630586</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.277674220646159</v>
+      </c>
+      <c r="H137" t="s">
         <v>9</v>
       </c>
     </row>
